--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150449.58890072</v>
+        <v>1212230.587184302</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6954433.315593187</v>
+        <v>6954433.315593186</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2879775827834</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>236.3975270100687</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>4.216776361774278</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>193.0044997481084</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,10 +896,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>389.0095420743611</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>183.7747659063857</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,22 +1133,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>341.0502487515475</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>150.3256848869542</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>105.7489499899219</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>347.6518966631703</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>71.43430199953282</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H13" t="n">
-        <v>103.8284742946034</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218097</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>173.7950029088917</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>168.3894349117786</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>148.8597651552992</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>173.7950029088919</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.8222093848751</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>66.96958968939217</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>273.4286173226618</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>18.227720276594</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>71.43430199953333</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2242,19 +2242,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>39.8602230574168</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738998</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>61.23284287475849</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2776,10 +2776,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>81.01098805494705</v>
+        <v>103.3456594571957</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>77.14020824927489</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>83.49545568307946</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170482</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.3562841193494</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3424,13 +3424,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855479</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>215.9656752709729</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3518,10 +3518,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3566,10 +3566,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>114.474958210592</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,13 +3718,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>229.602568517112</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>47.6140484974984</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>209.9851594782044</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,13 +4192,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>227.7248168572588</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1785.218505997676</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1347.076033181099</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>911.1662483555439</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805653</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489127</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.549176960777</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2215.763796142526</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>2211.518076482584</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940187</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>851.8941960123195</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>679.3324844955445</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>513.4544916970672</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>343.6964879478044</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.0427573423663</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>618.2526391103273</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1077.73650629124</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>1519.995309448885</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.597487995201</v>
+        <v>1939.664558674667</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645008</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1987.749529383139</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.524240083786</v>
+        <v>1792.795489233535</v>
       </c>
       <c r="X4" t="n">
-        <v>1271.132485417198</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>1043.712814731307</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1340.268492507381</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439876</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.8546588418185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>369.2929473250434</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>369.2929473250434</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5349435757807</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1511.5523534073</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.119352660406</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.119352660406</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>961.0929482466975</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>961.0929482466975</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.6732775608057</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.7619447847896</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>526.6598760086171</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>90.7500911830616</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176083</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137262</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137262</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851263</v>
+        <v>687.540662806093</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851263</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752933</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109468</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109468</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109468</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109468</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1410.449698350329</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>991.30723492964</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.0211112292934</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851263</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851263</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851263</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851263</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851263</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>491.8246367576064</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>946.8773380567001</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>780.194099522654</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>607.632388005879</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>607.632388005879</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>607.632388005879</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943381</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622991</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>880.6383009333126</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090957</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090957</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1731.77965172369</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1444.82414359412</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1444.82414359412</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>1199.432388927533</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>972.0127182416411</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.724095295529</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2034.581622478952</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.671837653396</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1164.897092811691</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>737.0296632208992</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1171.795942933974</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503958</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
         <v>2312.656441940405</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556612</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490439</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901472</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3307.309789480783</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.109260520272</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C13" t="n">
-        <v>879.5475490034971</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D13" t="n">
-        <v>713.6695562050198</v>
+        <v>467.7901097834751</v>
       </c>
       <c r="E13" t="n">
-        <v>543.9115524557571</v>
+        <v>298.0321060342123</v>
       </c>
       <c r="F13" t="n">
-        <v>367.2044984175134</v>
+        <v>121.3250519959686</v>
       </c>
       <c r="G13" t="n">
-        <v>201.613223443341</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2554.154217881911</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2275.721217135016</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1988.765709005447</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1716.739304591739</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1471.347549925151</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1243.927879239259</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>1084.662814845623</v>
       </c>
       <c r="C16" t="n">
         <v>914.5724765508969</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2563.032187437148</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2317.152741015603</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2038.719740268708</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>1751.764232139138</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.764232139138</v>
+        <v>1749.292858917089</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.372477472551</v>
+        <v>1503.901104250502</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.952806786659</v>
+        <v>1276.48143356461</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245547</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
         <v>1649.322926419992</v>
@@ -5540,22 +5540,22 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112634</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457494</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036804</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y17" t="n">
         <v>2949.674754547032</v>
@@ -5589,25 +5589,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1035.891962983371</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C19" t="n">
-        <v>863.3302514665961</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D19" t="n">
-        <v>697.4522586681188</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E19" t="n">
-        <v>527.6942549188561</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F19" t="n">
-        <v>350.9872008806124</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>185.39592590644</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
         <v>185.3959259064399</v>
@@ -5701,22 +5701,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2032.084248912224</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V19" t="n">
-        <v>1745.128740782654</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1473.102336368946</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.710581702358</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="Y19" t="n">
-        <v>1227.710581702358</v>
+        <v>1243.440187484302</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168566</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847292</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.962436093937</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G20" t="n">
-        <v>115.5646047172008</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503957</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4764.64297345017</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.8119928040991</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>612.250281287324</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>571.9874297141757</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>402.229425964913</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2008.423949418843</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1449.442036875565</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>976.6306115230861</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523334</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065586</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6175,22 +6175,22 @@
         <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755404</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
         <v>2013.948813008509</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008509</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.9224085948</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928213</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.110983242321</v>
+        <v>982.1554751127511</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6397,37 +6397,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.966900465231</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,22 +6540,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957676</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789925</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>611.1385207805153</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2613.163784754629</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2367.284338333084</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.851337586189</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V31" t="n">
-        <v>1801.895829456619</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1529.869425042911</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X31" t="n">
-        <v>1284.477670376323</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6704,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238768</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>126.849915585633</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6895,13 +6895,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1748.411126173567</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6941,37 +6941,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>838.9992856166232</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707801</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707801</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354699</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066055</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745666</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N37" t="n">
         <v>1783.551532113124</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1258.237575021502</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.81790433561</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.807784200424</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276419</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291646</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,13 +7333,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
         <v>1783.551532113124</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878952</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710513</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1941.268395329591</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915883</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249295</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1227.547229779339</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7485,25 +7485,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.441008084184</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C43" t="n">
-        <v>842.8792965674086</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751429</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755404</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008509</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.99330487894</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.966900465231</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X43" t="n">
-        <v>1242.860678770075</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1015.441008084184</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7634,64 +7634,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766308</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987182</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,31 +7716,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707797</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2013.948813008509</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1741.9224085948</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054329</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099312</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837337</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.02620412648071</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,25 +8456,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866472</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>182.7362419062505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>64.96802421314499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895957987</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>-4.259375782028067e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.73195639979843</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>185.1957776566214</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
-        <v>34.67467827192579</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566201</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.446659489828761</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>8.789189859684143</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>185.1957776566198</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.38105307846803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.220053416763903</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>11.38105307846803</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>124.3589898130757</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>102.986369995734</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>161.9268490649746</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>90.92021546249522</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>74.15349933190384</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.789189859683365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>26.97216184894875</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>56.36113619101528</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>54.48338453116173</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>32.9526776417173</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>15.21302026266283</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581352.4826674277</v>
+        <v>581352.4826674279</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>581352.482667428</v>
+        <v>581352.4826674279</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605886.2217579552</v>
+        <v>605886.2217579553</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605886.2217579552</v>
+        <v>605886.2217579553</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605886.2217579553</v>
+        <v>605886.2217579552</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605886.2217579553</v>
+        <v>605886.221757955</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
         <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.3919342449</v>
+        <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
+        <v>303314.3387830058</v>
+      </c>
+      <c r="F2" t="n">
         <v>303314.3387830057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>303314.3387830058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>303314.3387830057</v>
       </c>
       <c r="H2" t="n">
         <v>303314.3387830058</v>
@@ -26344,7 +26344,7 @@
         <v>316114.5504824113</v>
       </c>
       <c r="M2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="N2" t="n">
         <v>316114.5504824113</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520278</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715077</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897634</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="F4" t="n">
         <v>773.6821211687732</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826432</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26509,7 +26509,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49095.79013244696</v>
+        <v>-80761.38479930779</v>
       </c>
       <c r="C6" t="n">
-        <v>93095.51052726287</v>
+        <v>116630.9167803302</v>
       </c>
       <c r="D6" t="n">
-        <v>88055.25912400971</v>
+        <v>133971.4611542367</v>
       </c>
       <c r="E6" t="n">
-        <v>5222.020632161599</v>
+        <v>67209.68061927827</v>
       </c>
       <c r="F6" t="n">
-        <v>229021.3143841896</v>
+        <v>228944.7558293926</v>
       </c>
       <c r="G6" t="n">
-        <v>229021.3143841894</v>
+        <v>228944.7558293927</v>
       </c>
       <c r="H6" t="n">
-        <v>229021.3143841895</v>
+        <v>228944.7558293927</v>
       </c>
       <c r="I6" t="n">
-        <v>219225.2638529965</v>
+        <v>219202.0395136139</v>
       </c>
       <c r="J6" t="n">
-        <v>126575.5141408459</v>
+        <v>76958.92566084003</v>
       </c>
       <c r="K6" t="n">
-        <v>237589.9794858361</v>
+        <v>223752.7465786084</v>
       </c>
       <c r="L6" t="n">
-        <v>228642.3683973267</v>
+        <v>237566.7551464535</v>
       </c>
       <c r="M6" t="n">
-        <v>50798.9928753681</v>
+        <v>102576.8105334501</v>
       </c>
       <c r="N6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464536</v>
       </c>
       <c r="O6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464535</v>
       </c>
       <c r="P6" t="n">
-        <v>237589.9794858362</v>
+        <v>237566.7551464536</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4730705056276</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>178.5535117764137</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.7232071360871</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>76.30164062146298</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>44.75150601404982</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>59.64588605094355</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>59.75665129152952</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.8775775763889</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>23.65030257151109</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>169.8997207495038</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054329</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099312</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837337</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>44.02620412648071</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866472</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>182.7362419062505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>64.96802421314499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895957987</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36519,13 +36519,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512943</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512952</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37236,16 +37236,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
